--- a/06证书/汇总表.xlsx
+++ b/06证书/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="21540" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>竞赛组别</t>
   </si>
@@ -170,6 +170,33 @@
   </si>
   <si>
     <t>NCSC2024-85833023</t>
+  </si>
+  <si>
+    <t>电磁组（本科）</t>
+  </si>
+  <si>
+    <t>全国总决赛</t>
+  </si>
+  <si>
+    <t>总决赛</t>
+  </si>
+  <si>
+    <t>NCSC2024-43062931</t>
+  </si>
+  <si>
+    <t>NCSC2024-42579289</t>
+  </si>
+  <si>
+    <t>NCSC2024-37022208</t>
+  </si>
+  <si>
+    <t>NCSC2024-51788861</t>
+  </si>
+  <si>
+    <t>NCSC2024-21651269</t>
+  </si>
+  <si>
+    <t>NCSC2024-56442205</t>
   </si>
 </sst>
 </file>
@@ -177,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -199,16 +234,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,17 +294,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,37 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -282,52 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -350,19 +385,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,49 +523,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,109 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,31 +644,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,6 +675,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,153 +704,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,14 +894,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1209,7 +1244,7 @@
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="5.125" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="9.825" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
@@ -1269,7 +1304,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1331,234 +1366,345 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E24"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F24"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
